--- a/Balance_Beam/duration_result.xlsx
+++ b/Balance_Beam/duration_result.xlsx
@@ -7,14 +7,17 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="0518_baseline" sheetId="1" r:id="rId1"/>
+    <sheet name="0519_CTZ" sheetId="2" r:id="rId2"/>
+    <sheet name="0522_CTZ" sheetId="3" r:id="rId3"/>
+    <sheet name="0522_saline" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="56">
   <si>
     <t>檔名</t>
   </si>
@@ -25,6 +28,12 @@
     <t>在beam上的歷時</t>
   </si>
   <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
     <t>0518_DoB0904A_baseline_cropped.csv</t>
   </si>
   <si>
@@ -70,6 +79,12 @@
     <t>0518_G291_baseline_cropped.csv</t>
   </si>
   <si>
+    <t>0518</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
     <t>0519_DoB01213A_CTZ_cropped.csv</t>
   </si>
   <si>
@@ -115,49 +130,61 @@
     <t>0519_G291_CTZ_cropped.csv</t>
   </si>
   <si>
+    <t>0519</t>
+  </si>
+  <si>
+    <t>CTZ</t>
+  </si>
+  <si>
+    <t>0522_DoB0904C_CTZ_cropped.csv</t>
+  </si>
+  <si>
+    <t>0522_DoB0904D_CTZ_cropped.csv</t>
+  </si>
+  <si>
+    <t>0522_DoB1213C_CTZ_cropped.csv</t>
+  </si>
+  <si>
+    <t>0522_DoB1213D_CTZ_cropped.csv</t>
+  </si>
+  <si>
+    <t>0522_DoB1213E_CTZ_cropped.csv</t>
+  </si>
+  <si>
+    <t>0522_DoB1219D_CTZ_cropped.csv</t>
+  </si>
+  <si>
+    <t>0522_DoB1219E_CTZ_cropped.csv</t>
+  </si>
+  <si>
+    <t>0522_G291_CTZ_cropped.csv</t>
+  </si>
+  <si>
+    <t>0522</t>
+  </si>
+  <si>
     <t>0522_DoB0904A_saline_cropped.csv</t>
   </si>
   <si>
     <t>0522_DoB0904B_saline_cropped.csv</t>
   </si>
   <si>
-    <t>0522_DoB0904C_CTZ_cropped.csv</t>
-  </si>
-  <si>
-    <t>0522_DoB0904D_CTZ_cropped.csv</t>
-  </si>
-  <si>
     <t>0522_DoB1213A_saline_cropped.csv</t>
   </si>
   <si>
     <t>0522_DoB1213B_saline_cropped.csv</t>
   </si>
   <si>
-    <t>0522_DoB1213C_CTZ_cropped.csv</t>
-  </si>
-  <si>
-    <t>0522_DoB1213D_CTZ_cropped.csv</t>
-  </si>
-  <si>
-    <t>0522_DoB1213E_CTZ_cropped.csv</t>
-  </si>
-  <si>
     <t>0522_DoB1219A_saline_cropped.csv</t>
   </si>
   <si>
     <t>0522_DoB1219B_saline_cropped.csv</t>
   </si>
   <si>
-    <t>0522_DoB1219D_CTZ_cropped.csv</t>
-  </si>
-  <si>
-    <t>0522_DoB1219E_CTZ_cropped.csv</t>
-  </si>
-  <si>
     <t>0522_G290_saline_cropped.csv</t>
   </si>
   <si>
-    <t>0522_G291_CTZ_cropped.csv</t>
+    <t>saline</t>
   </si>
 </sst>
 </file>
@@ -515,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,500 +558,866 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>203.42</v>
+      </c>
+      <c r="C2">
+        <v>165.88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>62.18</v>
+      </c>
+      <c r="C3">
+        <v>56.2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>159.5</v>
+      </c>
+      <c r="C4">
+        <v>86.56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>323.52</v>
+      </c>
+      <c r="C5">
+        <v>202.86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>141.92</v>
+      </c>
+      <c r="C6">
+        <v>129.7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>124.86</v>
+      </c>
+      <c r="C7">
+        <v>101.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>170.98</v>
+      </c>
+      <c r="C8">
+        <v>146.94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>311.26</v>
+      </c>
+      <c r="C9">
+        <v>224.3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>149.94</v>
+      </c>
+      <c r="C10">
+        <v>133.06</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>273.48</v>
+      </c>
+      <c r="C11">
+        <v>246.46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>321.7</v>
+      </c>
+      <c r="C12">
+        <v>296.2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>322.28</v>
+      </c>
+      <c r="C13">
+        <v>306.54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>222.78</v>
+      </c>
+      <c r="C14">
+        <v>188.26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>167.24</v>
+      </c>
+      <c r="C15">
+        <v>116.9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>120.3</v>
+      </c>
+      <c r="C16">
+        <v>78.58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
       <c r="B2">
-        <v>10171</v>
+        <v>70.34</v>
       </c>
       <c r="C2">
-        <v>8294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>63.3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>94.06</v>
+      </c>
+      <c r="C3">
+        <v>83.68000000000001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>56.08</v>
+      </c>
+      <c r="C4">
+        <v>47.34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>58.94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>168.76</v>
+      </c>
+      <c r="C6">
+        <v>135.4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="C7">
+        <v>62.58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>174.36</v>
+      </c>
+      <c r="C8">
+        <v>168.1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>204.92</v>
+      </c>
+      <c r="C9">
+        <v>179.64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>77.73999999999999</v>
+      </c>
+      <c r="C10">
+        <v>69.56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>194.72</v>
+      </c>
+      <c r="C11">
+        <v>180.34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>218.2</v>
+      </c>
+      <c r="C12">
+        <v>203.5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <v>89.14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>149.02</v>
+      </c>
+      <c r="C14">
+        <v>137.66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>198.82</v>
+      </c>
+      <c r="C15">
+        <v>141.32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>95.95999999999999</v>
+      </c>
+      <c r="C16">
+        <v>79.44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>73.44</v>
+      </c>
+      <c r="C2">
+        <v>58.96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
       <c r="B3">
-        <v>3109</v>
+        <v>115.16</v>
       </c>
       <c r="C3">
-        <v>2810</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>106.62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>7975</v>
+        <v>221.22</v>
       </c>
       <c r="C4">
-        <v>4328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>211.16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>16176</v>
+        <v>170.32</v>
       </c>
       <c r="C5">
-        <v>10143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>157.4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B6">
-        <v>7096</v>
+        <v>98.58</v>
       </c>
       <c r="C6">
-        <v>6485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>89.02</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B7">
-        <v>6243</v>
+        <v>102.4</v>
       </c>
       <c r="C7">
-        <v>5075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>96.58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B8">
-        <v>8549</v>
+        <v>135.68</v>
       </c>
       <c r="C8">
-        <v>7347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>127.1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B9">
-        <v>15563</v>
+        <v>80.2</v>
       </c>
       <c r="C9">
-        <v>11215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>7497</v>
-      </c>
-      <c r="C10">
-        <v>6653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>13674</v>
-      </c>
-      <c r="C11">
-        <v>12323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>16085</v>
-      </c>
-      <c r="C12">
-        <v>14810</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>16114</v>
-      </c>
-      <c r="C13">
-        <v>15327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>11139</v>
-      </c>
-      <c r="C14">
-        <v>9413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>8362</v>
-      </c>
-      <c r="C15">
-        <v>5845</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>6015</v>
-      </c>
-      <c r="C16">
-        <v>3929</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>3517</v>
-      </c>
-      <c r="C17">
-        <v>3165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>4703</v>
-      </c>
-      <c r="C18">
-        <v>4184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>2804</v>
-      </c>
-      <c r="C19">
-        <v>2367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>3300</v>
-      </c>
-      <c r="C20">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>8438</v>
-      </c>
-      <c r="C21">
-        <v>6770</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>3995</v>
-      </c>
-      <c r="C22">
-        <v>3129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>8718</v>
-      </c>
-      <c r="C23">
-        <v>8405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>10246</v>
-      </c>
-      <c r="C24">
-        <v>8982</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>3887</v>
-      </c>
-      <c r="C25">
-        <v>3478</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>9736</v>
-      </c>
-      <c r="C26">
-        <v>9017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>10910</v>
-      </c>
-      <c r="C27">
-        <v>10175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>4750</v>
-      </c>
-      <c r="C28">
-        <v>4457</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>7451</v>
-      </c>
-      <c r="C29">
-        <v>6883</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>9941</v>
-      </c>
-      <c r="C30">
-        <v>7066</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>4798</v>
-      </c>
-      <c r="C31">
-        <v>3972</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>3396</v>
-      </c>
-      <c r="C32">
-        <v>3097</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>2426</v>
-      </c>
-      <c r="C33">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>3672</v>
-      </c>
-      <c r="C34">
-        <v>2948</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+        <v>57.9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>67.92</v>
+      </c>
+      <c r="C2">
+        <v>61.94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>48.52</v>
+      </c>
+      <c r="C3">
+        <v>40.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>98.86</v>
+      </c>
+      <c r="C4">
+        <v>92.26000000000001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>111.74</v>
+      </c>
+      <c r="C5">
+        <v>104.08</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>192.38</v>
+      </c>
+      <c r="C6">
+        <v>177.8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>482.6</v>
+      </c>
+      <c r="C7">
+        <v>475.42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>51.62</v>
+      </c>
+      <c r="C8">
         <v>36</v>
       </c>
-      <c r="B35">
-        <v>5758</v>
-      </c>
-      <c r="C35">
-        <v>5331</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36">
-        <v>4943</v>
-      </c>
-      <c r="C36">
-        <v>4613</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>5587</v>
-      </c>
-      <c r="C37">
-        <v>5204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38">
-        <v>11061</v>
-      </c>
-      <c r="C38">
-        <v>10558</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39">
-        <v>8516</v>
-      </c>
-      <c r="C39">
-        <v>7870</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40">
-        <v>4929</v>
-      </c>
-      <c r="C40">
-        <v>4451</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41">
-        <v>9619</v>
-      </c>
-      <c r="C41">
-        <v>8890</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42">
-        <v>24130</v>
-      </c>
-      <c r="C42">
-        <v>23771</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43">
-        <v>5120</v>
-      </c>
-      <c r="C43">
-        <v>4829</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44">
-        <v>6784</v>
-      </c>
-      <c r="C44">
-        <v>6355</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45">
-        <v>2581</v>
-      </c>
-      <c r="C45">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+      <c r="D8" t="s">
         <v>47</v>
       </c>
-      <c r="B46">
-        <v>4010</v>
-      </c>
-      <c r="C46">
-        <v>2895</v>
+      <c r="E8" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
